--- a/biology/Botanique/Jardin_botanique_de_Jindai/Jardin_botanique_de_Jindai.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Jindai/Jardin_botanique_de_Jindai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique de Jindai (神代植物公園, Jindai shokubutsu kōen?) est situé au bord du plateau de Musashino, juste au-dessus du Jindai-ji (temple bouddhiste) dans la ville de Chōfu, à Tokyo. Il s'étend sur 425 433 m2, et chacune de ses trente zones possède des variétés d'une espèce de plante. Des expositions d'ume, de sakura (cerises), de rhododendrons, de cornouiller, de pivoines, de roses, de wisteria ou autre fleurs sont présentées tous les mois. Devant le temple au-dessous se trouve également une zone humide annexe pour des plantes aquatiques, où sont cultivés des iris.
 Le jardin possède 100 000 arbres et arbustes représentant environ 4 500 variétés, chacune avec une étiquette d'identification. Le parc dispose d'un programme de protection des végétaux pour préserver les espèces japonaises en voie de disparition et des expositions et des activités liées au jardinage à destination des citoyens locaux. Juste à l'extérieur de la porte arrière, se trouve un domaine où sont vendues certaines plantes.
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
